--- a/CASUAL/LA PICNIC GROVE/SAN JUAN, EVA RUTH MAGBITANG.xlsx
+++ b/CASUAL/LA PICNIC GROVE/SAN JUAN, EVA RUTH MAGBITANG.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -234,6 +234,24 @@
   </si>
   <si>
     <t>UT(0-2-55)</t>
+  </si>
+  <si>
+    <t>UT(0-2-35)</t>
+  </si>
+  <si>
+    <t>UT(0-1-48)</t>
+  </si>
+  <si>
+    <t>UT(0-1-50)</t>
+  </si>
+  <si>
+    <t>UT(0-1-34)</t>
+  </si>
+  <si>
+    <t>UT(0-2-29)</t>
+  </si>
+  <si>
+    <t>UT(0-0-39)</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2366,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2695,12 +2713,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="C10" sqref="C10"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,7 +2890,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.096999999999994</v>
+        <v>43.733000000000004</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3649,11 +3667,15 @@
       <c r="A47" s="42">
         <v>44652</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="C47" s="14">
         <v>1.25</v>
       </c>
-      <c r="D47" s="41"/>
+      <c r="D47" s="41">
+        <v>8.1000000000000016E-2</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="21"/>
       <c r="G47" s="14">
@@ -3669,11 +3691,15 @@
       <c r="A48" s="42">
         <v>44682</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="C48" s="14">
         <v>1.25</v>
       </c>
-      <c r="D48" s="41"/>
+      <c r="D48" s="41">
+        <v>0.31</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="21"/>
       <c r="G48" s="14">
@@ -3689,11 +3715,15 @@
       <c r="A49" s="42">
         <v>44713</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="C49" s="14">
         <v>1.25</v>
       </c>
-      <c r="D49" s="41"/>
+      <c r="D49" s="41">
+        <v>0.19600000000000001</v>
+      </c>
       <c r="E49" s="10"/>
       <c r="F49" s="21"/>
       <c r="G49" s="14">
@@ -3709,11 +3739,15 @@
       <c r="A50" s="42">
         <v>44743</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="C50" s="14">
         <v>1.25</v>
       </c>
-      <c r="D50" s="41"/>
+      <c r="D50" s="41">
+        <v>0.22900000000000001</v>
+      </c>
       <c r="E50" s="10"/>
       <c r="F50" s="21"/>
       <c r="G50" s="14">
@@ -3729,11 +3763,15 @@
       <c r="A51" s="42">
         <v>44774</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="C51" s="14">
         <v>1.25</v>
       </c>
-      <c r="D51" s="41"/>
+      <c r="D51" s="41">
+        <v>0.22500000000000001</v>
+      </c>
       <c r="E51" s="10"/>
       <c r="F51" s="21"/>
       <c r="G51" s="14">
@@ -3772,23 +3810,19 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="42">
-        <v>44835</v>
-      </c>
+      <c r="A53" s="42"/>
       <c r="B53" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="14">
-        <v>1.25</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C53" s="14"/>
       <c r="D53" s="41">
-        <v>0.36499999999999999</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="21"/>
-      <c r="G53" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G53" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H53" s="41"/>
       <c r="I53" s="10"/>
@@ -3797,16 +3831,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="14">
         <v>1.25</v>
       </c>
       <c r="D54" s="41">
-        <v>0.27100000000000002</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="21"/>
@@ -3821,16 +3855,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C55" s="14">
         <v>1.25</v>
       </c>
       <c r="D55" s="41">
-        <v>5</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="21"/>
@@ -3844,19 +3878,23 @@
       <c r="K55" s="21"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
+      <c r="A56" s="42">
+        <v>44896</v>
+      </c>
       <c r="B56" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="C56" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D56" s="41">
-        <v>0.76700000000000002</v>
+        <v>5</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G56" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H56" s="41"/>
       <c r="I56" s="10"/>
@@ -3864,12 +3902,14 @@
       <c r="K56" s="21"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="21"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="C57" s="14"/>
-      <c r="D57" s="41"/>
+      <c r="D57" s="41">
+        <v>0.76700000000000002</v>
+      </c>
       <c r="E57" s="10"/>
       <c r="F57" s="21"/>
       <c r="G57" s="14" t="str">
@@ -3882,19 +3922,17 @@
       <c r="K57" s="21"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="42">
-        <v>44927</v>
+      <c r="A58" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="B58" s="21"/>
-      <c r="C58" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="C58" s="14"/>
       <c r="D58" s="41"/>
       <c r="E58" s="10"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G58" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H58" s="41"/>
       <c r="I58" s="10"/>
@@ -3903,7 +3941,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="14">
@@ -3923,17 +3961,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
-        <v>44986</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>53</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B60" s="21"/>
       <c r="C60" s="14">
         <v>1.25</v>
       </c>
-      <c r="D60" s="41">
-        <v>4</v>
-      </c>
+      <c r="D60" s="41"/>
       <c r="E60" s="10"/>
       <c r="F60" s="21"/>
       <c r="G60" s="14">
@@ -3943,19 +3977,21 @@
       <c r="H60" s="41"/>
       <c r="I60" s="10"/>
       <c r="J60" s="12"/>
-      <c r="K60" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="K60" s="21"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
-        <v>45017</v>
-      </c>
-      <c r="B61" s="21"/>
+        <v>44986</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="C61" s="14">
         <v>1.25</v>
       </c>
-      <c r="D61" s="41"/>
+      <c r="D61" s="41">
+        <v>4</v>
+      </c>
       <c r="E61" s="10"/>
       <c r="F61" s="21"/>
       <c r="G61" s="14">
@@ -3965,11 +4001,13 @@
       <c r="H61" s="41"/>
       <c r="I61" s="10"/>
       <c r="J61" s="12"/>
-      <c r="K61" s="21"/>
+      <c r="K61" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="14">
@@ -3989,7 +4027,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="14">
@@ -4009,7 +4047,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="14">
@@ -4029,7 +4067,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="14">
@@ -4049,7 +4087,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="14">
@@ -4069,7 +4107,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="14">
@@ -4089,7 +4127,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="14">
@@ -4109,17 +4147,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
-        <v>45261</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>61</v>
-      </c>
+        <v>45231</v>
+      </c>
+      <c r="B69" s="21"/>
       <c r="C69" s="14">
         <v>1.25</v>
       </c>
-      <c r="D69" s="41">
-        <v>1</v>
-      </c>
+      <c r="D69" s="41"/>
       <c r="E69" s="10"/>
       <c r="F69" s="21"/>
       <c r="G69" s="14">
@@ -4132,17 +4166,23 @@
       <c r="K69" s="21"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="41"/>
+      <c r="A70" s="42">
+        <v>45261</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D70" s="41">
+        <v>1</v>
+      </c>
       <c r="E70" s="10"/>
       <c r="F70" s="21"/>
-      <c r="G70" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="41"/>
       <c r="I70" s="10"/>
@@ -4150,8 +4190,8 @@
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="42">
-        <v>45292</v>
+      <c r="A71" s="50" t="s">
+        <v>60</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="14"/>
@@ -4169,7 +4209,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="14"/>
@@ -4187,7 +4227,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="14"/>
@@ -4205,7 +4245,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="14"/>
@@ -4223,7 +4263,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="42">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
@@ -4240,7 +4280,9 @@
       <c r="K75" s="21"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
+      <c r="A76" s="42">
+        <v>45413</v>
+      </c>
       <c r="B76" s="21"/>
       <c r="C76" s="14"/>
       <c r="D76" s="41"/>
@@ -5184,20 +5226,36 @@
       <c r="K134" s="21"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="43"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="45"/>
+      <c r="A135" s="42"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="41"/>
       <c r="E135" s="10"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="45"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="41"/>
       <c r="I135" s="10"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="16"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="21"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="43"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="45"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5307,15 +5365,13 @@
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="12">
-        <v>2</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="12">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.36499999999999999</v>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="J3" s="49"/>
       <c r="K3" s="37">
